--- a/plot/dataset_based/algorithm_evaluation/algorithm_evaluation.xlsx
+++ b/plot/dataset_based/algorithm_evaluation/algorithm_evaluation.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10520"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yuboluo/Documents/PycharmProjects/SmartSwitch/plot/dataset_based/algorithm_evaluation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCA91463-AC48-8747-AF17-7C898CBA9FDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A494995F-8510-8A47-8BF9-6C2A492AA6BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1160" yWindow="640" windowWidth="27640" windowHeight="15680" activeTab="1" xr2:uid="{91D821F7-EF8D-5E43-A2F0-11A563B77237}"/>
   </bookViews>
@@ -39,9 +39,6 @@
     <t>MNIST</t>
   </si>
   <si>
-    <t>CIFAR-10</t>
-  </si>
-  <si>
     <t>SVHN</t>
   </si>
   <si>
@@ -160,6 +157,9 @@
   </si>
   <si>
     <t>location of BP</t>
+  </si>
+  <si>
+    <t>CIFAR</t>
   </si>
 </sst>
 </file>
@@ -235,10 +235,10 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -556,55 +556,55 @@
   <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView zoomScale="118" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A1" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
+      <c r="A1" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="J2" s="2" t="s">
         <v>7</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
@@ -704,49 +704,49 @@
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
+      <c r="A8" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="E9" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="F9" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="G9" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G9" s="2" t="s">
+      <c r="H9" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H9" s="2" t="s">
+      <c r="I9" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I9" s="2" t="s">
+      <c r="J9" s="2" t="s">
         <v>7</v>
-      </c>
-      <c r="J9" s="2" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
@@ -873,49 +873,49 @@
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A17" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="5"/>
-      <c r="J17" s="5"/>
+      <c r="A17" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="6"/>
+      <c r="J17" s="6"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C18" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D18" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="E18" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E18" s="1" t="s">
+      <c r="F18" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F18" s="1" t="s">
+      <c r="G18" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G18" s="2" t="s">
+      <c r="H18" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H18" s="2" t="s">
+      <c r="I18" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I18" s="2" t="s">
+      <c r="J18" s="2" t="s">
         <v>7</v>
-      </c>
-      <c r="J18" s="2" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
@@ -1029,7 +1029,7 @@
   <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1038,54 +1038,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A1" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
+      <c r="A1" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="J2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="J2" s="2" t="s">
-        <v>8</v>
-      </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" s="6" t="s">
-        <v>16</v>
+      <c r="A3" s="5" t="s">
+        <v>15</v>
       </c>
       <c r="B3" s="4">
         <v>23.45</v>
@@ -1116,8 +1116,8 @@
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" s="6" t="s">
-        <v>17</v>
+      <c r="A4" s="5" t="s">
+        <v>16</v>
       </c>
       <c r="B4" s="4">
         <v>15.14</v>
@@ -1148,8 +1148,8 @@
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" s="6" t="s">
-        <v>18</v>
+      <c r="A5" s="5" t="s">
+        <v>17</v>
       </c>
       <c r="B5" s="4">
         <v>0.3</v>
@@ -1180,54 +1180,54 @@
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
+      <c r="A8" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="E9" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="F9" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="G9" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G9" s="2" t="s">
+      <c r="H9" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H9" s="2" t="s">
+      <c r="I9" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I9" s="2" t="s">
+      <c r="J9" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="J9" s="2" t="s">
-        <v>8</v>
-      </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A10" s="6" t="s">
-        <v>16</v>
+      <c r="A10" s="5" t="s">
+        <v>15</v>
       </c>
       <c r="B10" s="4">
         <f>2-B19</f>
@@ -1267,8 +1267,8 @@
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A11" s="6" t="s">
-        <v>17</v>
+      <c r="A11" s="5" t="s">
+        <v>16</v>
       </c>
       <c r="B11" s="4">
         <f t="shared" ref="B11:J12" si="1">2-B20</f>
@@ -1308,8 +1308,8 @@
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A12" s="6" t="s">
-        <v>18</v>
+      <c r="A12" s="5" t="s">
+        <v>17</v>
       </c>
       <c r="B12" s="4">
         <f t="shared" si="1"/>
@@ -1349,54 +1349,54 @@
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A17" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="5"/>
-      <c r="J17" s="5"/>
+      <c r="A17" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="6"/>
+      <c r="J17" s="6"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C18" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D18" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="E18" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E18" s="1" t="s">
+      <c r="F18" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F18" s="1" t="s">
+      <c r="G18" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G18" s="2" t="s">
+      <c r="H18" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H18" s="2" t="s">
+      <c r="I18" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I18" s="2" t="s">
+      <c r="J18" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="J18" s="2" t="s">
-        <v>8</v>
-      </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A19" s="6" t="s">
-        <v>16</v>
+      <c r="A19" s="5" t="s">
+        <v>15</v>
       </c>
       <c r="B19" s="4">
         <v>1.22</v>
@@ -1427,8 +1427,8 @@
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A20" s="6" t="s">
-        <v>17</v>
+      <c r="A20" s="5" t="s">
+        <v>16</v>
       </c>
       <c r="B20" s="4">
         <v>1.77</v>
@@ -1459,8 +1459,8 @@
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A21" s="6" t="s">
-        <v>18</v>
+      <c r="A21" s="5" t="s">
+        <v>17</v>
       </c>
       <c r="B21" s="4">
         <v>1.99</v>
